--- a/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.2 career_divided_unparsed_uncoded/career_death_unparsed_uncoded.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.2 career_divided_unparsed_uncoded/career_death_unparsed_uncoded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>CareerDateString_2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>CareerStringID</t>
         </is>
       </c>
@@ -453,7 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>2009.06</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -465,7 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>2010.08</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -477,7 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2008.03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -487,9 +507,10 @@
           <t>1949. 9 생모 김정숙 사망</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>120</t>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -499,9 +520,10 @@
           <t>1984. 3 사망</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>869</t>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>875</t>
         </is>
       </c>
     </row>
@@ -511,9 +533,10 @@
           <t>1994.7.8 사망</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1605</t>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1611</t>
         </is>
       </c>
     </row>
@@ -523,9 +546,10 @@
           <t>1995.2.25 사망</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1672</t>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1678</t>
         </is>
       </c>
     </row>
@@ -535,9 +559,10 @@
           <t>1997.2.21 사망</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1789</t>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1795</t>
         </is>
       </c>
     </row>
@@ -547,9 +572,10 @@
           <t>1999.1.20 사망</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1986</t>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1992</t>
         </is>
       </c>
     </row>
@@ -559,9 +585,10 @@
           <t>1999.9.23 사망</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1999</t>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2005</t>
         </is>
       </c>
     </row>
@@ -571,9 +598,10 @@
           <t>2000. 6 사망</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2031</t>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2038</t>
         </is>
       </c>
     </row>
@@ -583,9 +611,10 @@
           <t>2001. 2 사망</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2090</t>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2097</t>
         </is>
       </c>
     </row>
@@ -595,9 +624,10 @@
           <t>2002. 4 사망</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2176</t>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2183</t>
         </is>
       </c>
     </row>
@@ -607,9 +637,10 @@
           <t>2003.10.26 사망</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2365</t>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2372</t>
         </is>
       </c>
     </row>
@@ -619,9 +650,10 @@
           <t>2003.8.31 사망</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2377</t>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2384</t>
         </is>
       </c>
     </row>
@@ -631,9 +663,10 @@
           <t>2004.5.15 사망</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2455</t>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2462</t>
         </is>
       </c>
     </row>
@@ -643,9 +676,10 @@
           <t>2004.9.19 사망</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2456</t>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2463</t>
         </is>
       </c>
     </row>
@@ -655,9 +689,10 @@
           <t>2005. 8 황해남도 당 위원회 비서 사망시기 미상</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2538</t>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2545</t>
         </is>
       </c>
     </row>
@@ -667,9 +702,10 @@
           <t>2005.10.22 사망</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2564</t>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2571</t>
         </is>
       </c>
     </row>
@@ -679,9 +715,10 @@
           <t>2005.11 사망</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2572</t>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2579</t>
         </is>
       </c>
     </row>
@@ -691,9 +728,10 @@
           <t>2006. 4 사망</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2615</t>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2622</t>
         </is>
       </c>
     </row>
@@ -703,9 +741,10 @@
           <t>2006. 7 사망</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2644</t>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2651</t>
         </is>
       </c>
     </row>
@@ -715,9 +754,10 @@
           <t>2006. 9 사망</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2646</t>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2653</t>
         </is>
       </c>
     </row>
@@ -727,9 +767,10 @@
           <t>2006.10.5 사망</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2654</t>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2661</t>
         </is>
       </c>
     </row>
@@ -739,9 +780,10 @@
           <t>2006.11.23 사망</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2661</t>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2668</t>
         </is>
       </c>
     </row>
@@ -751,9 +793,10 @@
           <t>2006.8.20 사망</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2671</t>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2678</t>
         </is>
       </c>
     </row>
@@ -763,9 +806,10 @@
           <t>2007. 3 사망</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2689</t>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2696</t>
         </is>
       </c>
     </row>
@@ -775,9 +819,10 @@
           <t>2007. 사망</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2728</t>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2735</t>
         </is>
       </c>
     </row>
@@ -787,9 +832,10 @@
           <t>2007.1.3 사망</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2729</t>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2736</t>
         </is>
       </c>
     </row>
@@ -799,9 +845,10 @@
           <t>2007.10 사망</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2730</t>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2737</t>
         </is>
       </c>
     </row>
@@ -811,9 +858,10 @@
           <t>2008.10.28 사망(95세)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2795</t>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2802</t>
         </is>
       </c>
     </row>
@@ -823,9 +871,10 @@
           <t>2008.3.19 사망(92세)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2820</t>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2827</t>
         </is>
       </c>
     </row>
@@ -835,9 +884,10 @@
           <t>2009. 7.30 사망(80세)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2940</t>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2947</t>
         </is>
       </c>
     </row>
@@ -847,9 +897,10 @@
           <t>2009. 8 사망(77세)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2944</t>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2951</t>
         </is>
       </c>
     </row>
@@ -859,9 +910,10 @@
           <t>2009.1.15 사망(87세)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2966</t>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2973</t>
         </is>
       </c>
     </row>
@@ -871,9 +923,10 @@
           <t>2009.3.31 사망(79세)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2985</t>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2992</t>
         </is>
       </c>
     </row>
@@ -883,9 +936,10 @@
           <t>2009.6.26 사망(50세)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2986</t>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2993</t>
         </is>
       </c>
     </row>
@@ -895,9 +949,10 @@
           <t>2010. 4 사망(81세, 심장마비)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3021</t>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3028</t>
         </is>
       </c>
     </row>
@@ -907,9 +962,10 @@
           <t>2010. 6 사망</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>3049</t>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3056</t>
         </is>
       </c>
     </row>
@@ -919,9 +975,10 @@
           <t>2010. 8.13 사망(81세, 급성심장부전)</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>3088</t>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3095</t>
         </is>
       </c>
     </row>
@@ -931,9 +988,10 @@
           <t>2010.1.5 사망</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>3150</t>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3157</t>
         </is>
       </c>
     </row>
@@ -943,9 +1001,10 @@
           <t>2010.11.6 사망(82세, 심장병)</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3157</t>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3164</t>
         </is>
       </c>
     </row>
@@ -955,9 +1014,10 @@
           <t>2010.4.28 사망(86세, 심근경색)</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>3168</t>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3175</t>
         </is>
       </c>
     </row>
@@ -967,9 +1027,10 @@
           <t>2010.6.2 사망(80세, 교통사고)</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>3169</t>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3176</t>
         </is>
       </c>
     </row>
@@ -979,9 +1040,10 @@
           <t>2011. 7 사망</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>3215</t>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3222</t>
         </is>
       </c>
     </row>
@@ -991,9 +1053,10 @@
           <t>2011.1.22 사망(82세, 폐암)</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>3224</t>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3231</t>
         </is>
       </c>
     </row>
@@ -1003,9 +1066,10 @@
           <t>2011.12.17 사망(중증급성심근경색)</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>3237</t>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3244</t>
         </is>
       </c>
     </row>
@@ -1015,9 +1079,10 @@
           <t>2012.1.21 사망(80세, 심장마비)</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>3315</t>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3322</t>
         </is>
       </c>
     </row>
@@ -1027,9 +1092,10 @@
           <t>2013. 11 사망</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>3317</t>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3324</t>
         </is>
       </c>
     </row>
@@ -1039,9 +1105,10 @@
           <t>2013. 12.12 특펼군사제판에서 사형 집행</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>3319</t>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>3326</t>
         </is>
       </c>
     </row>
@@ -1051,9 +1118,10 @@
           <t>2013. 12.13 사망</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>3320</t>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3327</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1133,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3372</t>
+          <t>2008.10</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3379</t>
         </is>
       </c>
     </row>
@@ -1077,343 +1150,1143 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4980</t>
+          <t>1999.01</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>5553</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>사망(100세, 급성폐렴에 의한 호흡부전)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4981</t>
+          <t>2013.11</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>5554</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>사망(2014. 9 애국열사릉에 새로 안치)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4982</t>
+          <t>2018.08</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>5555</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>사망(73세, 교통사고)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4983</t>
+          <t>2009.02</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5556</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>사망(76세, 급성호흡부전·식도암)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4984</t>
+          <t>2005.10</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>5557</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>사망(77세)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4985</t>
+          <t>2016.10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>5558</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>사망(77세, 폐암)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4986</t>
+          <t>연도미상</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>5559</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>사망(79세)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4987</t>
+          <t>2011.07</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>5560</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>사망(80세)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4988</t>
+          <t>2006.04</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>5561</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>사망(80세, 교통사고)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4989</t>
+          <t>2015.05</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>5562</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>사망(80세, 심장마비)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4990</t>
+          <t>2005.11</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5563</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>사망(81세 심장마비)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4991</t>
+          <t>2001.02</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>5564</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>사망(82세, 심장병)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4992</t>
+          <t>2014.08</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>5565</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>사망(82세, 폐암)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4993</t>
+          <t>2007.03</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>5566</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>사망(85세)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4994</t>
+          <t>2004.09</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>5567</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>사망(86세, 심근경색)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4995</t>
+          <t>2004.05</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5568</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>사망(87세)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4996</t>
+          <t>2016.01</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>5569</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>사망(89세, 급성심부전 및 호흡부전)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4997</t>
+          <t>2006.11</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>5570</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>사망(94세, 폐암)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4998</t>
+          <t>2007.10</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>5571</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>사망(95세, 폐암)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>2013.02</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>5572</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>사망(98세)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>2002.04</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>5573</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>사망(공개처형)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5001</t>
+          <t>1984.03</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>5574</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>사망(공개처형, 12.12)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5002</t>
+          <t>1994.07</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>5575</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>사망(심근경색)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>2006.07</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5576</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>사망(중증급성심근경색)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t>2014.02</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5577</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>사망(폐암)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5005</t>
+          <t>2018.09</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>5578</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>사망시기 미상</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5006</t>
+          <t>2006.10</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5579</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>생모 김정숙 사망</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5055</t>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>5580</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>사망</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2003.10</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5581</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>사망</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2006.08</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>5582</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>사망</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>5583</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>사망</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2013.08</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>5584</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>사망</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2010.01</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>5585</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>사망</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2017.03</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>5586</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>사망</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2016.11</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>5587</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>사망</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2003.08</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>5588</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>사망</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1995.02</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>5589</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>사망</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1999.09</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>5590</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>사망</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2001.05</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>5591</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>사망</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1997.02</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5592</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>사망(100세, 급성폐렴에 의한 호흡부전)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>5593</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>사망(2014. 9 애국열사릉에 새로 안치)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>연도미상</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>5594</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>사망(73세, 교통사고)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2015.12</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5595</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>사망(76세, 급성호흡부전·식도암)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2016.05</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>5596</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>사망(77세)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2009.08</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5597</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>사망(77세, 폐암)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2010.08</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5598</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>사망(79세)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2009.03</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>5599</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>사망(80세)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2009.07</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>사망(80세, 교통사고)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2010.06</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5601</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>사망(80세, 심장마비)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2012.01</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5602</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>사망(81세 심장마비)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2010.04</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>5603</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>사망(82세, 심장병)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2010.11</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>5604</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>사망(82세, 폐암)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2011.01</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>5605</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>사망(85세)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2015.07</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>5606</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>사망(86세, 심근경색)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2010.04</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5607</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>사망(87세)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2009.01</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>5608</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>사망(89세, 급성심부전 및 호흡부전)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2013.12</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5609</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>사망(94세, 폐암)</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2015.11</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>5610</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>사망(95세, 폐암)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2016.11</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>5611</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>사망(98세)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2018.12</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>5612</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>사망(공개처형)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2013.11</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>5613</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>사망(공개처형, 12.12)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2013.12</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>5614</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>사망(심근경색)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2014.07</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>5615</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>사망(중증급성심근경색)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2011.12</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>5616</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>사망(폐암)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2007.01</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>5617</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>사망시기 미상</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>5618</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>생모 김정숙 사망</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1949.09</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>5675</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
           <t>연도미상 사망</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>5200</t>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>5836</t>
         </is>
       </c>
     </row>
